--- a/attendance sheets/UNHCR.xlsx
+++ b/attendance sheets/UNHCR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Position</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Session 7</t>
+  </si>
+  <si>
+    <t>Here</t>
   </si>
 </sst>
 </file>
@@ -206,11 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +428,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -483,6 +487,12 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -581,6 +591,9 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
